--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Flow Type</t>
   </si>
@@ -447,6 +447,45 @@
   </si>
   <si>
     <t>adfada</t>
+  </si>
+  <si>
+    <t>2022-4-27 14:9:51:569</t>
+  </si>
+  <si>
+    <t>18852399384</t>
+  </si>
+  <si>
+    <t>18690171424</t>
+  </si>
+  <si>
+    <t>15315065895</t>
+  </si>
+  <si>
+    <t>18803617799</t>
+  </si>
+  <si>
+    <t>13677980128</t>
+  </si>
+  <si>
+    <t>15744264898</t>
+  </si>
+  <si>
+    <t>17606265692</t>
+  </si>
+  <si>
+    <t>17523677404</t>
+  </si>
+  <si>
+    <t>14990717943</t>
+  </si>
+  <si>
+    <t>17663680279</t>
+  </si>
+  <si>
+    <t>17167720219</t>
+  </si>
+  <si>
+    <t>13259450843</t>
   </si>
 </sst>
 </file>
@@ -1447,30 +1486,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="3" width="17.4537037037037" customWidth="1"/>
-    <col min="4" max="4" width="18.1759259259259" customWidth="1"/>
-    <col min="5" max="5" width="32.8148148148148" customWidth="1"/>
-    <col min="6" max="6" width="16.7222222222222" customWidth="1"/>
-    <col min="7" max="7" width="11.4537037037037" customWidth="1"/>
-    <col min="8" max="8" width="20.0925925925926" customWidth="1"/>
-    <col min="9" max="9" width="26.9074074074074" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19.4537037037037" customWidth="1"/>
-    <col min="12" max="12" width="24.3611111111111" customWidth="1"/>
-    <col min="13" max="13" width="26.9074074074074" customWidth="1"/>
-    <col min="14" max="14" width="23.3611111111111" customWidth="1"/>
-    <col min="15" max="15" width="8.90740740740741" customWidth="1"/>
-    <col min="16" max="16" width="14.7222222222222" customWidth="1"/>
-    <col min="17" max="17" width="24.6296296296296" customWidth="1"/>
-    <col min="18" max="18" width="29" customWidth="1"/>
-    <col min="19" max="21" width="17.0925925925926" customWidth="1"/>
-    <col min="22" max="22" width="34.7222222222222" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="19" customWidth="1"/>
-    <col min="26" max="26" width="16.4537037037037" customWidth="1"/>
-    <col min="27" max="27" width="21.6296296296296" customWidth="1"/>
-    <col min="28" max="28" width="14.9074074074074" customWidth="1"/>
-    <col min="29" max="29" width="12.6296296296296" customWidth="1"/>
+    <col min="2" max="3" customWidth="true" width="17.4537037037037" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.1759259259259" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.8148148148148" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7222222222222" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.4537037037037" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.0925925925926" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.9074074074074" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.4537037037037" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.3611111111111" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="26.9074074074074" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.3611111111111" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.90740740740741" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.7222222222222" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="24.6296296296296" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="19" max="21" customWidth="true" width="17.0925925925926" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="34.7222222222222" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="16.4537037037037" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.6296296296296" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="14.9074074074074" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="12.6296296296296" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6" spans="1:29">
@@ -1566,8 +1605,8 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2">
-        <v>20220322295</v>
+      <c r="B2" t="s">
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Flow Type</t>
   </si>
@@ -395,13 +395,16 @@
     <t>Service</t>
   </si>
   <si>
+    <t>19956930876</t>
+  </si>
+  <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>1RC5</t>
-  </si>
-  <si>
-    <t>Laura</t>
+    <t>No.2</t>
+  </si>
+  <si>
+    <t>No.1</t>
   </si>
   <si>
     <t>SGD</t>
@@ -449,43 +452,19 @@
     <t>adfada</t>
   </si>
   <si>
-    <t>2022-4-27 14:9:51:569</t>
-  </si>
-  <si>
-    <t>18852399384</t>
-  </si>
-  <si>
-    <t>18690171424</t>
-  </si>
-  <si>
-    <t>15315065895</t>
-  </si>
-  <si>
-    <t>18803617799</t>
-  </si>
-  <si>
-    <t>13677980128</t>
-  </si>
-  <si>
-    <t>15744264898</t>
-  </si>
-  <si>
-    <t>17606265692</t>
-  </si>
-  <si>
-    <t>17523677404</t>
-  </si>
-  <si>
-    <t>14990717943</t>
-  </si>
-  <si>
-    <t>17663680279</t>
-  </si>
-  <si>
-    <t>17167720219</t>
-  </si>
-  <si>
-    <t>13259450843</t>
+    <t>13112421424</t>
+  </si>
+  <si>
+    <t>16660229011</t>
+  </si>
+  <si>
+    <t>17614501222</t>
+  </si>
+  <si>
+    <t>EES Freight Services PL</t>
+  </si>
+  <si>
+    <t>KMS Lines SG Pte Ltd</t>
   </si>
 </sst>
 </file>
@@ -493,9 +472,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -520,7 +499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,6 +509,91 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,24 +605,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,75 +614,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,15 +629,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,187 +657,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,15 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -911,6 +881,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -922,15 +901,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,10 +937,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -984,6 +952,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -992,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,133 +983,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,7 +1460,7 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1606,19 +1585,19 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3">
         <v>5000</v>
@@ -1636,49 +1615,49 @@
         <v>120000026</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="V2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC2" s="7">
         <v>1354685</v>
@@ -1686,9 +1665,6 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P4:P1048576">
-      <formula1>"Sea,Air,Land"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A4:A1048576">
       <formula1>"Goods,Service"</formula1>
     </dataValidation>
@@ -1698,6 +1674,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G1048576">
       <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P4:P1048576">
+      <formula1>"Sea,Air,Land"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Flow Type</t>
   </si>
@@ -465,6 +465,27 @@
   </si>
   <si>
     <t>KMS Lines SG Pte Ltd</t>
+  </si>
+  <si>
+    <t>13817972971</t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>17750235857</t>
+  </si>
+  <si>
+    <t>17319457486</t>
+  </si>
+  <si>
+    <t>14968827142</t>
+  </si>
+  <si>
+    <t>17598035592</t>
   </si>
 </sst>
 </file>
@@ -1585,16 +1606,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>Flow Type</t>
   </si>
@@ -486,6 +486,21 @@
   </si>
   <si>
     <t>17598035592</t>
+  </si>
+  <si>
+    <t>17767822226</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>17667444575</t>
+  </si>
+  <si>
+    <t>18085397599</t>
+  </si>
+  <si>
+    <t>13319261686</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1621,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1615,7 +1630,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Flow Type</t>
   </si>
@@ -501,6 +501,18 @@
   </si>
   <si>
     <t>13319261686</t>
+  </si>
+  <si>
+    <t>14701893888</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>13990682893</t>
   </si>
 </sst>
 </file>
@@ -1621,16 +1633,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Flow Type</t>
   </si>
@@ -395,16 +395,13 @@
     <t>Service</t>
   </si>
   <si>
-    <t>19956930876</t>
-  </si>
-  <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>No.2</t>
-  </si>
-  <si>
-    <t>No.1</t>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Dora</t>
   </si>
   <si>
     <t>SGD</t>
@@ -419,136 +416,46 @@
     <t>Air</t>
   </si>
   <si>
-    <t>dahakdhakjdak</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>rsfsf</t>
-  </si>
-  <si>
-    <t>adsda</t>
-  </si>
-  <si>
-    <t>afsfsfsfafafkkosrgkp</t>
-  </si>
-  <si>
-    <t>felakdjakdoapi</t>
-  </si>
-  <si>
-    <t>wofehqkjaksudhk</t>
-  </si>
-  <si>
-    <t>asdfadagav</t>
-  </si>
-  <si>
-    <t>safdafapijp</t>
-  </si>
-  <si>
-    <t>adadadji</t>
-  </si>
-  <si>
-    <t>adfada</t>
-  </si>
-  <si>
-    <t>13112421424</t>
-  </si>
-  <si>
-    <t>16660229011</t>
-  </si>
-  <si>
-    <t>17614501222</t>
-  </si>
-  <si>
-    <t>EES Freight Services PL</t>
-  </si>
-  <si>
-    <t>KMS Lines SG Pte Ltd</t>
-  </si>
-  <si>
-    <t>13817972971</t>
-  </si>
-  <si>
-    <t>Erica</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>17750235857</t>
-  </si>
-  <si>
-    <t>17319457486</t>
-  </si>
-  <si>
-    <t>14968827142</t>
-  </si>
-  <si>
-    <t>17598035592</t>
-  </si>
-  <si>
-    <t>17767822226</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>17667444575</t>
-  </si>
-  <si>
-    <t>18085397599</t>
-  </si>
-  <si>
-    <t>13319261686</t>
-  </si>
-  <si>
-    <t>16624181590</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Doris</t>
-  </si>
-  <si>
-    <t>14987358202</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>17126801966</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>17503932431</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>19925847667</t>
-  </si>
-  <si>
-    <t>Karida</t>
-  </si>
-  <si>
-    <t>13974682339</t>
-  </si>
-  <si>
-    <t>Dora</t>
-  </si>
-  <si>
-    <t>18896959425</t>
-  </si>
-  <si>
-    <t>17640469095</t>
-  </si>
-  <si>
-    <t>13801618120</t>
+    <t>AZA MEDICAL SERVICES CO.LTD</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>YEO HIAP SENG LTD</t>
+  </si>
+  <si>
+    <t>KUNLUN SHIPPING LIMITED</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>KUNLUN SHIPPING COMPANY LIMITED</t>
+  </si>
+  <si>
+    <t>SENAT SHIPPING LIMITED</t>
+  </si>
+  <si>
+    <t>TOYOTA MOTOR ASIA PACIFIC PTE LTD</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>SOMALIA</t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>TABUK</t>
+  </si>
+  <si>
+    <t>17780549829</t>
+  </si>
+  <si>
+    <t>13644297662</t>
   </si>
 </sst>
 </file>
@@ -556,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -583,14 +490,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,7 +542,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,84 +605,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -741,13 +648,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,25 +744,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,25 +786,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,103 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,6 +858,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -969,37 +891,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,11 +920,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,133 +974,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1543,7 +1450,7 @@
   <sheetPr/>
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1561,7 +1468,7 @@
     <col min="12" max="12" customWidth="true" width="24.3611111111111" collapsed="true"/>
     <col min="13" max="13" customWidth="true" width="26.9074074074074" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="23.3611111111111" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="8.90740740740741" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.5555555555556" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="14.7222222222222" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="24.6296296296296" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="29.0" collapsed="true"/>
@@ -1669,23 +1576,25 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
       <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H2" s="3">
-        <v>5000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="4">
         <v>46032</v>
       </c>
@@ -1699,28 +1608,28 @@
         <v>120000026</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>42</v>
@@ -1744,16 +1653,16 @@
         <v>48</v>
       </c>
       <c r="AC2" s="7">
-        <v>1354685</v>
+        <v>8917467</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C4:C1048576">
+      <formula1>"PO,INVOICE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A4:A1048576">
       <formula1>"Goods,Service"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C4:C1048576">
-      <formula1>"PO,INVOICE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G1048576">
       <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>Flow Type</t>
   </si>
@@ -395,13 +395,16 @@
     <t>Service</t>
   </si>
   <si>
+    <t>13277011951</t>
+  </si>
+  <si>
     <t>INVOICE</t>
   </si>
   <si>
     <t>Morgan</t>
   </si>
   <si>
-    <t>Dora</t>
+    <t>Brandon</t>
   </si>
   <si>
     <t>SGD</t>
@@ -452,10 +455,55 @@
     <t>TABUK</t>
   </si>
   <si>
-    <t>17780549829</t>
-  </si>
-  <si>
-    <t>13644297662</t>
+    <t>13049230766</t>
+  </si>
+  <si>
+    <t>17694619689</t>
+  </si>
+  <si>
+    <t>14980938301</t>
+  </si>
+  <si>
+    <t>15933215144</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>17276830807</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>18447339310</t>
+  </si>
+  <si>
+    <t>Ishara</t>
+  </si>
+  <si>
+    <t>13532585724</t>
+  </si>
+  <si>
+    <t>15022325712</t>
+  </si>
+  <si>
+    <t>18157433812</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>17188269317</t>
+  </si>
+  <si>
+    <t>Elsa</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>18678587156</t>
   </si>
 </sst>
 </file>
@@ -1450,8 +1498,8 @@
   <sheetPr/>
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1576,81 +1624,81 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3">
         <v>10000</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4">
-        <v>46032</v>
+        <v>44936</v>
       </c>
       <c r="K2" s="3">
         <v>5000</v>
       </c>
       <c r="L2" s="4">
-        <v>46042</v>
+        <v>44946</v>
       </c>
       <c r="M2" s="3">
         <v>120000026</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="7">
         <v>8917467</v>
@@ -1658,11 +1706,11 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A4:A1048576">
+      <formula1>"Goods,Service"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C4:C1048576">
       <formula1>"PO,INVOICE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A4:A1048576">
-      <formula1>"Goods,Service"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G1048576">
       <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Flow Type</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>18678587156</t>
+  </si>
+  <si>
+    <t>13319593625</t>
+  </si>
+  <si>
+    <t>JIAJIA</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1630,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1633,7 +1639,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Flow Type</t>
   </si>
@@ -510,6 +510,18 @@
   </si>
   <si>
     <t>JIAJIA</t>
+  </si>
+  <si>
+    <t>13021382160</t>
+  </si>
+  <si>
+    <t>Chelsean209</t>
+  </si>
+  <si>
+    <t>17301498349</t>
+  </si>
+  <si>
+    <t>Peggy502z</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1642,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1639,7 +1651,7 @@
         <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Document Upload Template" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>Flow Type</t>
   </si>
@@ -22,9 +22,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -33,7 +33,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Doc Ref. No.</t>
     </r>
@@ -42,9 +42,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -53,7 +53,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t xml:space="preserve">Document Type </t>
     </r>
@@ -62,9 +62,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -73,7 +73,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Buyer</t>
     </r>
@@ -82,9 +82,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -93,7 +93,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Supplier</t>
     </r>
@@ -105,9 +105,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -116,7 +116,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Currency</t>
     </r>
@@ -125,9 +125,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -136,7 +136,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Document Amount</t>
     </r>
@@ -160,9 +160,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -171,7 +171,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Description of Goods</t>
     </r>
@@ -180,9 +180,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -191,7 +191,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>B/L No.</t>
     </r>
@@ -203,9 +203,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -214,7 +214,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Carrier / Charter / Agent</t>
     </r>
@@ -223,9 +223,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -234,7 +234,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Country / Region of Origin</t>
     </r>
@@ -243,9 +243,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -254,7 +254,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Consignee</t>
     </r>
@@ -269,9 +269,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -280,7 +280,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Freight Forwarders</t>
     </r>
@@ -289,9 +289,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -300,7 +300,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Shipper</t>
     </r>
@@ -309,9 +309,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -320,7 +320,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Notify Party</t>
     </r>
@@ -329,9 +329,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -340,7 +340,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Port of Discharge </t>
     </r>
@@ -349,9 +349,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -360,7 +360,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Port of Loading</t>
     </r>
@@ -372,9 +372,9 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <color indexed="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="0"/>
       </rPr>
       <t>*</t>
     </r>
@@ -383,7 +383,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>Vessel Name</t>
     </r>
@@ -392,169 +392,151 @@
     <t>IMO No. </t>
   </si>
   <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>13277011951</t>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>15649264433</t>
   </si>
   <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Brandon</t>
+    <t>Tracy1lnh</t>
+  </si>
+  <si>
+    <t>Kathy5r6w</t>
   </si>
   <si>
     <t>SGD</t>
   </si>
   <si>
-    <t>Thermal Reactor</t>
-  </si>
-  <si>
-    <t>IL123455677</t>
-  </si>
-  <si>
-    <t>Air</t>
-  </si>
-  <si>
-    <t>AZA MEDICAL SERVICES CO.LTD</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>YEO HIAP SENG LTD</t>
-  </si>
-  <si>
-    <t>KUNLUN SHIPPING LIMITED</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>KUNLUN SHIPPING COMPANY LIMITED</t>
-  </si>
-  <si>
-    <t>SENAT SHIPPING LIMITED</t>
-  </si>
-  <si>
-    <t>TOYOTA MOTOR ASIA PACIFIC PTE LTD</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>SOMALIA</t>
-  </si>
-  <si>
-    <t>IRAN</t>
-  </si>
-  <si>
-    <t>TABUK</t>
-  </si>
-  <si>
-    <t>13049230766</t>
-  </si>
-  <si>
-    <t>17694619689</t>
-  </si>
-  <si>
-    <t>14980938301</t>
-  </si>
-  <si>
-    <t>15933215144</t>
-  </si>
-  <si>
-    <t>Miranda</t>
-  </si>
-  <si>
-    <t>17276830807</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>18447339310</t>
-  </si>
-  <si>
-    <t>Ishara</t>
-  </si>
-  <si>
-    <t>13532585724</t>
-  </si>
-  <si>
-    <t>15022325712</t>
-  </si>
-  <si>
-    <t>18157433812</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
-  </si>
-  <si>
-    <t>17188269317</t>
-  </si>
-  <si>
-    <t>Elsa</t>
-  </si>
-  <si>
-    <t>Nicole</t>
-  </si>
-  <si>
-    <t>18678587156</t>
-  </si>
-  <si>
-    <t>13319593625</t>
-  </si>
-  <si>
-    <t>JIAJIA</t>
-  </si>
-  <si>
-    <t>13021382160</t>
-  </si>
-  <si>
-    <t>Chelsean209</t>
-  </si>
-  <si>
-    <t>17301498349</t>
-  </si>
-  <si>
-    <t>Peggy502z</t>
-  </si>
-  <si>
-    <t>15150709287</t>
-  </si>
-  <si>
-    <t>Tracy1lnh</t>
-  </si>
-  <si>
-    <t>Kathy5r6w</t>
-  </si>
-  <si>
-    <t>15122337944</t>
-  </si>
-  <si>
-    <t>19881271680</t>
-  </si>
-  <si>
-    <t>Connieaypz</t>
-  </si>
-  <si>
-    <t>Ulyssesq43e</t>
-  </si>
-  <si>
-    <t>15628375642</t>
-  </si>
-  <si>
-    <t>16699711329</t>
-  </si>
-  <si>
-    <t>18591543587</t>
-  </si>
-  <si>
-    <t>Chelsea26b5</t>
+    <t>Garments</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Maersk International Shipping Co</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>HOUSING AND DEVELOPMENT BOARD</t>
+  </si>
+  <si>
+    <t>Linklogis (Singapore) Pte. Ltd</t>
+  </si>
+  <si>
+    <t>Shanghai Port</t>
+  </si>
+  <si>
+    <t>sssd01</t>
+  </si>
+  <si>
+    <t>16658836570</t>
+  </si>
+  <si>
+    <t>Sami0j6m</t>
+  </si>
+  <si>
+    <t>JIA</t>
+  </si>
+  <si>
+    <t>18140951829</t>
+  </si>
+  <si>
+    <t>Lisa5t9u</t>
+  </si>
+  <si>
+    <t>18139912781</t>
+  </si>
+  <si>
+    <t>18007210137</t>
+  </si>
+  <si>
+    <t>19914705978</t>
+  </si>
+  <si>
+    <t>15223563607</t>
+  </si>
+  <si>
+    <t>Leslie8b13</t>
+  </si>
+  <si>
+    <t>Tessk01s</t>
+  </si>
+  <si>
+    <t>15386207785</t>
+  </si>
+  <si>
+    <t>14941459336</t>
+  </si>
+  <si>
+    <t>13159362415</t>
+  </si>
+  <si>
+    <t>LAND TRANSPORT AUTHORITY OF SINGAPORE</t>
+  </si>
+  <si>
+    <t>Alexisq26k</t>
+  </si>
+  <si>
+    <t>13842009881</t>
+  </si>
+  <si>
+    <t>13869299775</t>
+  </si>
+  <si>
+    <t>Shelley51pp</t>
+  </si>
+  <si>
+    <t>Enterprisep192</t>
+  </si>
+  <si>
+    <t>18333595929</t>
+  </si>
+  <si>
+    <t>Carry4jew</t>
+  </si>
+  <si>
+    <t>Williamh5wj</t>
+  </si>
+  <si>
+    <t>17657317611</t>
+  </si>
+  <si>
+    <t>Paulineh2k2</t>
+  </si>
+  <si>
+    <t>Coled682</t>
+  </si>
+  <si>
+    <t>18109979044</t>
+  </si>
+  <si>
+    <t>17159976482</t>
+  </si>
+  <si>
+    <t>18588166686</t>
+  </si>
+  <si>
+    <t>19991565793</t>
+  </si>
+  <si>
+    <t>13876936165</t>
+  </si>
+  <si>
+    <t>18054070794</t>
+  </si>
+  <si>
+    <t>13546678927</t>
+  </si>
+  <si>
+    <t>Zack818l</t>
+  </si>
+  <si>
+    <t>Brittanyw76m</t>
   </si>
 </sst>
 </file>
@@ -567,7 +549,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,13 +561,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -731,6 +713,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -741,7 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFEBF3FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,17 +929,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9E9FF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,30 +1185,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1549,8 +1525,8 @@
   <sheetPr/>
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1585,16 +1561,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1670,104 +1646,91 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="58" customHeight="1" spans="1:29">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:28">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44830</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I2" s="3"/>
+      <c r="H2" s="5">
+        <v>5000</v>
+      </c>
       <c r="J2" s="4">
-        <v>44936</v>
-      </c>
-      <c r="K2" s="3">
+        <v>45225</v>
+      </c>
+      <c r="K2" s="5">
         <v>5000</v>
       </c>
       <c r="L2" s="4">
-        <v>44946</v>
-      </c>
-      <c r="M2" s="3">
-        <v>120000026</v>
-      </c>
-      <c r="N2" s="5" t="s">
+        <v>45256</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="1">
+        <v>5454364478</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="V2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>8917467</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A4:A1048576">
-      <formula1>"Goods,Service"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C4:C1048576">
-      <formula1>"PO,INVOICE"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G1048576">
       <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P4:P1048576">
       <formula1>"Sea,Air,Land"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A2 A4:A1048576">
+      <formula1>"Goods,Service"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C4:C1048576">
+      <formula1>"PO,INVOICE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>Flow Type</t>
   </si>
@@ -537,6 +537,15 @@
   </si>
   <si>
     <t>Brittanyw76m</t>
+  </si>
+  <si>
+    <t>13826039454</t>
+  </si>
+  <si>
+    <t>Mariahq4qv</t>
+  </si>
+  <si>
+    <t>Cody2azz</t>
   </si>
 </sst>
 </file>
@@ -1651,16 +1660,16 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F2" s="4">
         <v>44830</v>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Flow Type</t>
   </si>
@@ -501,6 +501,30 @@
   </si>
   <si>
     <t>Angela88z8</t>
+  </si>
+  <si>
+    <t>15860418602</t>
+  </si>
+  <si>
+    <t>Henryd777</t>
+  </si>
+  <si>
+    <t>Frances6b1j</t>
+  </si>
+  <si>
+    <t>14573766741</t>
+  </si>
+  <si>
+    <t>Cloris629k</t>
+  </si>
+  <si>
+    <t>Alicerlzq</t>
+  </si>
+  <si>
+    <t>15612226475</t>
+  </si>
+  <si>
+    <t>17586324521</t>
   </si>
 </sst>
 </file>
@@ -1652,16 +1676,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Flow Type</t>
   </si>
@@ -525,6 +525,27 @@
   </si>
   <si>
     <t>17586324521</t>
+  </si>
+  <si>
+    <t>18923657614</t>
+  </si>
+  <si>
+    <t>Terencet18o</t>
+  </si>
+  <si>
+    <t>Julie3396</t>
+  </si>
+  <si>
+    <t>18528151263</t>
+  </si>
+  <si>
+    <t>15378090789</t>
+  </si>
+  <si>
+    <t>16602405302</t>
+  </si>
+  <si>
+    <t>13207876678</t>
   </si>
 </sst>
 </file>
@@ -1676,16 +1697,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>Flow Type</t>
   </si>
@@ -501,6 +501,87 @@
   </si>
   <si>
     <t>Angela88z8</t>
+  </si>
+  <si>
+    <t>13122211526</t>
+  </si>
+  <si>
+    <t>Jane1cv7</t>
+  </si>
+  <si>
+    <t>Florence4726</t>
+  </si>
+  <si>
+    <t>18989512252</t>
+  </si>
+  <si>
+    <t>Kelsey91l2</t>
+  </si>
+  <si>
+    <t>17880159872</t>
+  </si>
+  <si>
+    <t>15171639748</t>
+  </si>
+  <si>
+    <t>17227912605</t>
+  </si>
+  <si>
+    <t>15514521785</t>
+  </si>
+  <si>
+    <t>19968155550</t>
+  </si>
+  <si>
+    <t>17689487020</t>
+  </si>
+  <si>
+    <t>Cloris629k</t>
+  </si>
+  <si>
+    <t>testVault</t>
+  </si>
+  <si>
+    <t>17312961272</t>
+  </si>
+  <si>
+    <t>19959312613</t>
+  </si>
+  <si>
+    <t>17562505976</t>
+  </si>
+  <si>
+    <t>13683040059</t>
+  </si>
+  <si>
+    <t>testVaultData2</t>
+  </si>
+  <si>
+    <t>18900648045</t>
+  </si>
+  <si>
+    <t>13905513585</t>
+  </si>
+  <si>
+    <t>17376812543</t>
+  </si>
+  <si>
+    <t>BuyerTest002</t>
+  </si>
+  <si>
+    <t>SCF001</t>
+  </si>
+  <si>
+    <t>13321529815</t>
+  </si>
+  <si>
+    <t>BuyerTest</t>
+  </si>
+  <si>
+    <t>19838946699</t>
+  </si>
+  <si>
+    <t>SCF1024</t>
   </si>
 </sst>
 </file>
@@ -1652,16 +1733,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="360"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="360"/>
   </bookViews>
   <sheets>
     <sheet name="Document Upload Template" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Flow Type</t>
   </si>
@@ -395,7 +395,7 @@
     <t>Service</t>
   </si>
   <si>
-    <t>18922852931</t>
+    <t>13691797291</t>
   </si>
   <si>
     <t>INVOICE</t>
@@ -453,111 +453,6 @@
   </si>
   <si>
     <t>ORION STAR</t>
-  </si>
-  <si>
-    <t>15805988598</t>
-  </si>
-  <si>
-    <t>18066327295</t>
-  </si>
-  <si>
-    <t>Stuarts7q8</t>
-  </si>
-  <si>
-    <t>Cary5212</t>
-  </si>
-  <si>
-    <t>18943761835</t>
-  </si>
-  <si>
-    <t>ZID</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>13310696193</t>
-  </si>
-  <si>
-    <t>dmm ee</t>
-  </si>
-  <si>
-    <t>Chen Ya Ya</t>
-  </si>
-  <si>
-    <t>17261456125</t>
-  </si>
-  <si>
-    <t>ZIB</t>
-  </si>
-  <si>
-    <t>hdd0918</t>
-  </si>
-  <si>
-    <t>14796084416</t>
-  </si>
-  <si>
-    <t>Eddie768y</t>
-  </si>
-  <si>
-    <t>Angela88z8</t>
-  </si>
-  <si>
-    <t>15860418602</t>
-  </si>
-  <si>
-    <t>Henryd777</t>
-  </si>
-  <si>
-    <t>Frances6b1j</t>
-  </si>
-  <si>
-    <t>14573766741</t>
-  </si>
-  <si>
-    <t>Cloris629k</t>
-  </si>
-  <si>
-    <t>Alicerlzq</t>
-  </si>
-  <si>
-    <t>15612226475</t>
-  </si>
-  <si>
-    <t>17586324521</t>
-  </si>
-  <si>
-    <t>18923657614</t>
-  </si>
-  <si>
-    <t>Terencet18o</t>
-  </si>
-  <si>
-    <t>Julie3396</t>
-  </si>
-  <si>
-    <t>18528151263</t>
-  </si>
-  <si>
-    <t>15378090789</t>
-  </si>
-  <si>
-    <t>16602405302</t>
-  </si>
-  <si>
-    <t>13207876678</t>
-  </si>
-  <si>
-    <t>19945765593</t>
-  </si>
-  <si>
-    <t>BuyerTest</t>
-  </si>
-  <si>
-    <t>JIAJIA0130</t>
-  </si>
-  <si>
-    <t>13691797291</t>
   </si>
 </sst>
 </file>
@@ -1583,36 +1478,36 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.3611111111111" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="17.4537037037037" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.8148148148148" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.8148148148148" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7314814814815" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.4537037037037" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.0925925925926" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.9074074074074" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.4537037037037" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.3611111111111" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="26.9074074074074" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="23.3611111111111" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="17.5462962962963" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.7314814814815" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="24.6388888888889" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="19" max="21" customWidth="true" width="17.0925925925926" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="34.7314814814815" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="16.4537037037037" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="21.6388888888889" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="14.9074074074074" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="12.6388888888889" collapsed="true"/>
+    <col min="1" max="1" width="11.3611111111111" customWidth="1"/>
+    <col min="2" max="3" width="17.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="26.8148148148148" customWidth="1"/>
+    <col min="5" max="5" width="32.8148148148148" customWidth="1"/>
+    <col min="6" max="6" width="16.7314814814815" customWidth="1"/>
+    <col min="7" max="7" width="11.4537037037037" customWidth="1"/>
+    <col min="8" max="8" width="20.0925925925926" customWidth="1"/>
+    <col min="9" max="9" width="26.9074074074074" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="19.4537037037037" customWidth="1"/>
+    <col min="12" max="12" width="24.3611111111111" customWidth="1"/>
+    <col min="13" max="13" width="26.9074074074074" customWidth="1"/>
+    <col min="14" max="14" width="23.3611111111111" customWidth="1"/>
+    <col min="15" max="15" width="17.5462962962963" customWidth="1"/>
+    <col min="16" max="16" width="14.7314814814815" customWidth="1"/>
+    <col min="17" max="17" width="24.6388888888889" customWidth="1"/>
+    <col min="18" max="18" width="29" customWidth="1"/>
+    <col min="19" max="21" width="17.0925925925926" customWidth="1"/>
+    <col min="22" max="22" width="34.7314814814815" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="19" customWidth="1"/>
+    <col min="26" max="26" width="16.4537037037037" customWidth="1"/>
+    <col min="27" max="27" width="21.6388888888889" customWidth="1"/>
+    <col min="28" max="28" width="14.9074074074074" customWidth="1"/>
+    <col min="29" max="29" width="12.6388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6" spans="1:29">
@@ -1709,7 +1604,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>31</v>
@@ -1731,13 +1626,13 @@
         <v>1000</v>
       </c>
       <c r="J2" s="5">
-        <v>44955</v>
+        <v>45320</v>
       </c>
       <c r="K2" s="6">
         <v>5000</v>
       </c>
       <c r="L2" s="5">
-        <v>44955</v>
+        <v>45320</v>
       </c>
       <c r="M2" s="6">
         <v>120000026</v>
@@ -1795,9 +1690,6 @@
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3:A1048576">
       <formula1>"Goods,Service"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3:P1048576">
-      <formula1>"Sea,Air,Land"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C1048576">
       <formula1>"PO,INVOICE"</formula1>
@@ -1805,6 +1697,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G1048576">
       <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3:P1048576">
+      <formula1>"Sea,Air,Land"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Flow Type</t>
   </si>
@@ -392,19 +392,16 @@
     <t>IMO No. </t>
   </si>
   <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>13691797291</t>
+    <t>Goods</t>
   </si>
   <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>LEN POST</t>
-  </si>
-  <si>
-    <t>JIAJIA AML002</t>
+    <t>buyerLi</t>
+  </si>
+  <si>
+    <t>tianmumu2</t>
   </si>
   <si>
     <t>SGD</t>
@@ -1477,8 +1474,8 @@
   <sheetPr/>
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1603,21 +1600,21 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>20230221002</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="6">
         <v>5000</v>
@@ -1626,61 +1623,61 @@
         <v>1000</v>
       </c>
       <c r="J2" s="5">
-        <v>45320</v>
+        <v>45014</v>
       </c>
       <c r="K2" s="6">
         <v>5000</v>
       </c>
       <c r="L2" s="5">
-        <v>45320</v>
+        <v>45014</v>
       </c>
       <c r="M2" s="6">
         <v>120000026</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="AC2" s="11">
         <v>9333589</v>
@@ -1688,6 +1685,9 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3:P1048576">
+      <formula1>"Sea,Air,Land"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3:A1048576">
       <formula1>"Goods,Service"</formula1>
     </dataValidation>
@@ -1697,9 +1697,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G1048576">
       <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3:P1048576">
-      <formula1>"Sea,Air,Land"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Flow Type</t>
   </si>
@@ -450,6 +450,33 @@
   </si>
   <si>
     <t>ORION STAR</t>
+  </si>
+  <si>
+    <t>15972421108</t>
+  </si>
+  <si>
+    <t>Lindab2r4</t>
+  </si>
+  <si>
+    <t>Rachelx741</t>
+  </si>
+  <si>
+    <t>13346594905</t>
+  </si>
+  <si>
+    <t>Peter849y</t>
+  </si>
+  <si>
+    <t>Cassie551n</t>
+  </si>
+  <si>
+    <t>16651551047</t>
+  </si>
+  <si>
+    <t>Brittanyt5hz</t>
+  </si>
+  <si>
+    <t>Sherryy6j2</t>
   </si>
 </sst>
 </file>
@@ -1480,31 +1507,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.3611111111111" customWidth="1"/>
-    <col min="2" max="3" width="17.4537037037037" customWidth="1"/>
-    <col min="4" max="4" width="26.8148148148148" customWidth="1"/>
-    <col min="5" max="5" width="32.8148148148148" customWidth="1"/>
-    <col min="6" max="6" width="16.7314814814815" customWidth="1"/>
-    <col min="7" max="7" width="11.4537037037037" customWidth="1"/>
-    <col min="8" max="8" width="20.0925925925926" customWidth="1"/>
-    <col min="9" max="9" width="26.9074074074074" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19.4537037037037" customWidth="1"/>
-    <col min="12" max="12" width="24.3611111111111" customWidth="1"/>
-    <col min="13" max="13" width="26.9074074074074" customWidth="1"/>
-    <col min="14" max="14" width="23.3611111111111" customWidth="1"/>
-    <col min="15" max="15" width="17.5462962962963" customWidth="1"/>
-    <col min="16" max="16" width="14.7314814814815" customWidth="1"/>
-    <col min="17" max="17" width="24.6388888888889" customWidth="1"/>
-    <col min="18" max="18" width="29" customWidth="1"/>
-    <col min="19" max="21" width="17.0925925925926" customWidth="1"/>
-    <col min="22" max="22" width="34.7314814814815" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="19" customWidth="1"/>
-    <col min="26" max="26" width="16.4537037037037" customWidth="1"/>
-    <col min="27" max="27" width="21.6388888888889" customWidth="1"/>
-    <col min="28" max="28" width="14.9074074074074" customWidth="1"/>
-    <col min="29" max="29" width="12.6388888888889" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.3611111111111" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="17.4537037037037" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.8148148148148" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="32.8148148148148" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7314814814815" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.4537037037037" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.0925925925926" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.9074074074074" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.4537037037037" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="24.3611111111111" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="26.9074074074074" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.3611111111111" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.5462962962963" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.7314814814815" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="24.6388888888889" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="19" max="21" customWidth="true" width="17.0925925925926" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="34.7314814814815" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="16.4537037037037" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.6388888888889" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="14.9074074074074" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="12.6388888888889" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6" spans="1:29">
@@ -1600,17 +1627,17 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2">
-        <v>20230221002</v>
+      <c r="B2" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Flow Type</t>
   </si>
@@ -477,6 +477,18 @@
   </si>
   <si>
     <t>Sherryy6j2</t>
+  </si>
+  <si>
+    <t>17295809827</t>
+  </si>
+  <si>
+    <t>BuyerTest</t>
+  </si>
+  <si>
+    <t>SCF001</t>
+  </si>
+  <si>
+    <t>16653116979</t>
   </si>
 </sst>
 </file>
@@ -1628,16 +1640,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Flow Type</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>16653116979</t>
+  </si>
+  <si>
+    <t>15601062006</t>
+  </si>
+  <si>
+    <t>Martin0w38</t>
+  </si>
+  <si>
+    <t>Vera0t88</t>
   </si>
 </sst>
 </file>
@@ -1640,16 +1649,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Flow Type</t>
   </si>
@@ -392,16 +392,16 @@
     <t>IMO No. </t>
   </si>
   <si>
-    <t>Goods</t>
+    <t>Service</t>
   </si>
   <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>buyerLi</t>
-  </si>
-  <si>
-    <t>tianmumu2</t>
+    <t>BuyerTest</t>
+  </si>
+  <si>
+    <t>SCF001</t>
   </si>
   <si>
     <t>SGD</t>
@@ -452,52 +452,31 @@
     <t>ORION STAR</t>
   </si>
   <si>
-    <t>15972421108</t>
-  </si>
-  <si>
-    <t>Lindab2r4</t>
-  </si>
-  <si>
-    <t>Rachelx741</t>
-  </si>
-  <si>
-    <t>13346594905</t>
-  </si>
-  <si>
-    <t>Peter849y</t>
-  </si>
-  <si>
-    <t>Cassie551n</t>
-  </si>
-  <si>
-    <t>16651551047</t>
-  </si>
-  <si>
-    <t>Brittanyt5hz</t>
-  </si>
-  <si>
-    <t>Sherryy6j2</t>
-  </si>
-  <si>
-    <t>17295809827</t>
-  </si>
-  <si>
-    <t>BuyerTest</t>
-  </si>
-  <si>
-    <t>SCF001</t>
-  </si>
-  <si>
-    <t>16653116979</t>
-  </si>
-  <si>
-    <t>15601062006</t>
-  </si>
-  <si>
-    <t>Martin0w38</t>
-  </si>
-  <si>
-    <t>Vera0t88</t>
+    <t>18439192409</t>
+  </si>
+  <si>
+    <t>Philipq4t8</t>
+  </si>
+  <si>
+    <t>Evelyn78x4</t>
+  </si>
+  <si>
+    <t>13560620486</t>
+  </si>
+  <si>
+    <t>Elainet8mc</t>
+  </si>
+  <si>
+    <t>Adam5p3i</t>
+  </si>
+  <si>
+    <t>18974279071</t>
+  </si>
+  <si>
+    <t>17356822784</t>
+  </si>
+  <si>
+    <t>14973753230</t>
   </si>
 </sst>
 </file>
@@ -1522,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1649,16 +1628,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
@@ -1671,13 +1650,13 @@
         <v>1000</v>
       </c>
       <c r="J2" s="5">
-        <v>45014</v>
+        <v>45036</v>
       </c>
       <c r="K2" s="6">
         <v>5000</v>
       </c>
       <c r="L2" s="5">
-        <v>45014</v>
+        <v>45075</v>
       </c>
       <c r="M2" s="6">
         <v>120000026</v>
@@ -1733,17 +1712,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3:P1048576">
-      <formula1>"Sea,Air,Land"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3:A1048576">
       <formula1>"Goods,Service"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G1048576">
+      <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C1048576">
       <formula1>"PO,INVOICE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G1048576">
-      <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3:P1048576">
+      <formula1>"Sea,Air,Land"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Flow Type</t>
   </si>
@@ -477,6 +477,30 @@
   </si>
   <si>
     <t>14973753230</t>
+  </si>
+  <si>
+    <t>18521595814</t>
+  </si>
+  <si>
+    <t>Garybn51</t>
+  </si>
+  <si>
+    <t>liulili</t>
+  </si>
+  <si>
+    <t>17335305071</t>
+  </si>
+  <si>
+    <t>Stuart026l</t>
+  </si>
+  <si>
+    <t>Frieda6uw6</t>
+  </si>
+  <si>
+    <t>17647118186</t>
+  </si>
+  <si>
+    <t>18727598292</t>
   </si>
 </sst>
 </file>
@@ -1628,16 +1652,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Flow Type</t>
   </si>
@@ -392,16 +392,16 @@
     <t>IMO No. </t>
   </si>
   <si>
-    <t>Service</t>
+    <t>Goods</t>
   </si>
   <si>
     <t>INVOICE</t>
   </si>
   <si>
-    <t>BuyerTest</t>
-  </si>
-  <si>
-    <t>SCF001</t>
+    <t>testVualtBuyer</t>
+  </si>
+  <si>
+    <t>SCF1024</t>
   </si>
   <si>
     <t>SGD</t>
@@ -450,57 +450,6 @@
   </si>
   <si>
     <t>ORION STAR</t>
-  </si>
-  <si>
-    <t>18439192409</t>
-  </si>
-  <si>
-    <t>Philipq4t8</t>
-  </si>
-  <si>
-    <t>Evelyn78x4</t>
-  </si>
-  <si>
-    <t>13560620486</t>
-  </si>
-  <si>
-    <t>Elainet8mc</t>
-  </si>
-  <si>
-    <t>Adam5p3i</t>
-  </si>
-  <si>
-    <t>18974279071</t>
-  </si>
-  <si>
-    <t>17356822784</t>
-  </si>
-  <si>
-    <t>14973753230</t>
-  </si>
-  <si>
-    <t>18521595814</t>
-  </si>
-  <si>
-    <t>Garybn51</t>
-  </si>
-  <si>
-    <t>liulili</t>
-  </si>
-  <si>
-    <t>17335305071</t>
-  </si>
-  <si>
-    <t>Stuart026l</t>
-  </si>
-  <si>
-    <t>Frieda6uw6</t>
-  </si>
-  <si>
-    <t>17647118186</t>
-  </si>
-  <si>
-    <t>18727598292</t>
   </si>
 </sst>
 </file>
@@ -1526,36 +1475,36 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.3611111111111" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="17.4537037037037" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.8148148148148" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="32.8148148148148" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7314814814815" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.4537037037037" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.0925925925926" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="26.9074074074074" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.4537037037037" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.3611111111111" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="26.9074074074074" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="23.3611111111111" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="17.5462962962963" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="14.7314814814815" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="24.6388888888889" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="19" max="21" customWidth="true" width="17.0925925925926" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="34.7314814814815" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="16.4537037037037" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="21.6388888888889" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="14.9074074074074" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="12.6388888888889" collapsed="true"/>
+    <col min="1" max="1" width="11.3611111111111" customWidth="1"/>
+    <col min="2" max="3" width="17.4537037037037" customWidth="1"/>
+    <col min="4" max="4" width="26.8148148148148" customWidth="1"/>
+    <col min="5" max="5" width="32.8148148148148" customWidth="1"/>
+    <col min="6" max="6" width="16.7314814814815" customWidth="1"/>
+    <col min="7" max="7" width="11.4537037037037" customWidth="1"/>
+    <col min="8" max="8" width="20.0925925925926" customWidth="1"/>
+    <col min="9" max="9" width="26.9074074074074" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="19.4537037037037" customWidth="1"/>
+    <col min="12" max="12" width="24.3611111111111" customWidth="1"/>
+    <col min="13" max="13" width="26.9074074074074" customWidth="1"/>
+    <col min="14" max="14" width="23.3611111111111" customWidth="1"/>
+    <col min="15" max="15" width="17.5462962962963" customWidth="1"/>
+    <col min="16" max="16" width="14.7314814814815" customWidth="1"/>
+    <col min="17" max="17" width="24.6388888888889" customWidth="1"/>
+    <col min="18" max="18" width="29" customWidth="1"/>
+    <col min="19" max="21" width="17.0925925925926" customWidth="1"/>
+    <col min="22" max="22" width="34.7314814814815" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="19" customWidth="1"/>
+    <col min="26" max="26" width="16.4537037037037" customWidth="1"/>
+    <col min="27" max="27" width="21.6388888888889" customWidth="1"/>
+    <col min="28" max="28" width="14.9074074074074" customWidth="1"/>
+    <col min="29" max="29" width="12.6388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.6" spans="1:29">
@@ -1651,17 +1600,17 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
+      <c r="B2">
+        <v>18647050400</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
@@ -1674,7 +1623,7 @@
         <v>1000</v>
       </c>
       <c r="J2" s="5">
-        <v>45036</v>
+        <v>45075</v>
       </c>
       <c r="K2" s="6">
         <v>5000</v>
@@ -1739,11 +1688,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3:A1048576">
       <formula1>"Goods,Service"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C1048576">
+      <formula1>"PO,INVOICE"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G1048576">
       <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C1048576">
-      <formula1>"PO,INVOICE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3:P1048576">
       <formula1>"Sea,Air,Land"</formula1>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -398,10 +398,10 @@
     <t>INVOICE</t>
   </si>
   <si>
-    <t>testVualtBuyer</t>
-  </si>
-  <si>
-    <t>SCF1024</t>
+    <t>BuyerTest</t>
+  </si>
+  <si>
+    <t>SCF001</t>
   </si>
   <si>
     <t>SGD</t>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1601,7 +1601,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>18647050400</v>
+        <v>15675612348</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
@@ -1623,13 +1623,13 @@
         <v>1000</v>
       </c>
       <c r="J2" s="5">
-        <v>45075</v>
+        <v>45136</v>
       </c>
       <c r="K2" s="6">
         <v>5000</v>
       </c>
       <c r="L2" s="5">
-        <v>45075</v>
+        <v>45136</v>
       </c>
       <c r="M2" s="6">
         <v>120000026</v>

--- a/src/test/resources/testData/excel/testAuto.xlsx
+++ b/src/test/resources/testData/excel/testAuto.xlsx
@@ -398,10 +398,10 @@
     <t>INVOICE</t>
   </si>
   <si>
-    <t>BuyerTest</t>
-  </si>
-  <si>
-    <t>SCF001</t>
+    <t>jiajiabuyer001</t>
+  </si>
+  <si>
+    <t>nini0221</t>
   </si>
   <si>
     <t>SGD</t>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1601,7 +1601,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>15675612348</v>
+        <v>15675612350</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
@@ -1685,6 +1685,9 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3:P1048576">
+      <formula1>"Sea,Air,Land"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3:A1048576">
       <formula1>"Goods,Service"</formula1>
     </dataValidation>
@@ -1694,9 +1697,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3:G1048576">
       <formula1>"CNY,USD,EUR,HKD,SGD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3:P1048576">
-      <formula1>"Sea,Air,Land"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
